--- a/spec/fixtures/dropbox/example_batch_ingest/badName_required_column.xlsx
+++ b/spec/fixtures/dropbox/example_batch_ingest/badName_required_column.xlsx
@@ -5,91 +5,105 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
-  <si>
-    <t>Bad Name for Required Column</t>
-  </si>
-  <si>
-    <t>frances.dickens@reichel.com</t>
-  </si>
-  <si>
-    <t>Main Tootle</t>
-  </si>
-  <si>
-    <t>Contributor</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>Date Issued</t>
-  </si>
-  <si>
-    <t>Abstract</t>
-  </si>
-  <si>
-    <t>Topical Subject</t>
-  </si>
-  <si>
-    <t>Geographic Subject</t>
-  </si>
-  <si>
-    <t>Temporal Subject</t>
-  </si>
-  <si>
-    <t>Publish</t>
-  </si>
-  <si>
-    <t>Hidden</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>Skip Transcoding</t>
-  </si>
-  <si>
-    <t>Absolute Location</t>
-  </si>
-  <si>
-    <t>Test Batch - File 1 with space</t>
-  </si>
-  <si>
-    <t>Julie Hardesty</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>content/0276 med.mp4</t>
-  </si>
-  <si>
-    <t>Test Batch - File 2 with space</t>
-  </si>
-  <si>
-    <t>content/tone loc.wav</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+  <si>
+    <t xml:space="preserve">Bad Name for Required Column</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frances.dickens@reichel.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Tootle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contributor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publisher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Issued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abstract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topical Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geographic Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal Subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hidden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skip Transcoding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Batch - File 1 with space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julie Hardesty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content/0276 med.mp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Batch - File 2 with space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">content/tone loc.wav</t>
   </si>
 </sst>
 </file>
@@ -97,7 +111,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -231,29 +245,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="00FFFFFF"/>
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.4925925925926"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.4925925925926"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.4962962962963"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.8296296296296"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="10.8333333333333"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="10.4925925925926"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="15.837037037037"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.4925925925926"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2481481481481"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8185185185185"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.3444444444444"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="11.0740740740741"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3851851851852"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1703703703704"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.6814814814815"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,45 +332,63 @@
       <c r="Q2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="R2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2014</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/spec/fixtures/dropbox/example_batch_ingest/badName_required_column.xlsx
+++ b/spec/fixtures/dropbox/example_batch_ingest/badName_required_column.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t xml:space="preserve">Bad Name for Required Column</t>
   </si>
@@ -100,10 +100,16 @@
     <t xml:space="preserve">Test subject</t>
   </si>
   <si>
+    <t xml:space="preserve">Travel</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test Batch - File 2 with space</t>
   </si>
   <si>
     <t xml:space="preserve">content/tone loc.wav</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bicycle</t>
   </si>
 </sst>
 </file>
@@ -248,26 +254,26 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2:S4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.2481481481481"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.8185185185185"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.3444444444444"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.1111111111111"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="11.0740740740741"/>
-    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="10.6814814814815"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.3851851851852"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.1703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.6814814814815"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4444444444444"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.1111111111111"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.737037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.4037037037037"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="11.3666666666667"/>
+    <col collapsed="false" hidden="false" max="15" min="14" style="0" width="10.9740740740741"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="15.7777777777778"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.5592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="10.9740740740741"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,6 +344,9 @@
       <c r="S2" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="T2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -364,10 +373,13 @@
       <c r="S3" s="0" t="s">
         <v>25</v>
       </c>
+      <c r="T3" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>21</v>
@@ -382,13 +394,16 @@
         <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R4" s="0" t="s">
         <v>24</v>
       </c>
       <c r="S4" s="0" t="s">
         <v>25</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
